--- a/data/1.reference/internal_testers.xlsx
+++ b/data/1.reference/internal_testers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\1.reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE5EAD-DF85-4B46-8E86-28FD077954C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2C1E7-BEFA-47E5-A351-6F702311F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{8EB7229C-A710-4906-81A4-C5FC65AC263B}"/>
+    <workbookView xWindow="720" yWindow="1965" windowWidth="21600" windowHeight="18540" xr2:uid="{8EB7229C-A710-4906-81A4-C5FC65AC263B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>andres.arau@pulpodata.org</t>
+  </si>
+  <si>
+    <t>keep_sample</t>
   </si>
 </sst>
 </file>
@@ -515,21 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E80C4A-D96B-48F8-BC51-F720FD0823CC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -562,8 +568,11 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -579,8 +588,11 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -596,8 +608,11 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -613,8 +628,11 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -630,8 +648,11 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -647,8 +668,11 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -664,8 +688,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -681,8 +708,11 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -698,8 +728,11 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -715,8 +748,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -730,6 +766,9 @@
         <v>22</v>
       </c>
       <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>
